--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E0CA8-6CF0-4968-94F5-7AF659A1B461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4FD3C-C37B-4EDF-979D-5D7C826F1460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>x1 ith</t>
+  </si>
+  <si>
+    <t>x2 ith</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +429,14 @@
         <v>18.605</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>17.347000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4FD3C-C37B-4EDF-979D-5D7C826F1460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E51AC-3146-47F5-B728-F823A37D1F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>x2 ith</t>
+  </si>
+  <si>
+    <t>x3 ith</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +440,14 @@
         <v>17.347000000000001</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>16.504000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E51AC-3146-47F5-B728-F823A37D1F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C4AA8-3333-4C55-9553-BF35F50E5427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>x3 ith</t>
+  </si>
+  <si>
+    <t>x4 ith</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +451,14 @@
         <v>16.504000000000001</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>14.913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C4AA8-3333-4C55-9553-BF35F50E5427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9973D0-6BA1-4474-AC8D-5A7F564C304A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>x4 ith</t>
+  </si>
+  <si>
+    <t>x5 ith</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +462,14 @@
         <v>14.913</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>22.268999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9973D0-6BA1-4474-AC8D-5A7F564C304A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763F9F1-7CC0-4361-BAF3-BFF7BBADBD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>x5 ith</t>
+  </si>
+  <si>
+    <t>x6 ith</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +473,14 @@
         <v>22.268999999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15.784000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763F9F1-7CC0-4361-BAF3-BFF7BBADBD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848DAB1-C060-4FF1-B97C-7A92B48B9F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>x6 ith</t>
+  </si>
+  <si>
+    <t>x7 ith</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +484,14 @@
         <v>15.784000000000001</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>25.748000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848DAB1-C060-4FF1-B97C-7A92B48B9F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2024C887-D116-43E3-B833-FFCF826DDD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>x7 ith</t>
+  </si>
+  <si>
+    <t>x8 ith</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +495,14 @@
         <v>25.748000000000001</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>16.202000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Regression Analysis/Final Exam/PRESS stats.xlsx
+++ b/Regression Analysis/Final Exam/PRESS stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Regression Analysis\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2024C887-D116-43E3-B833-FFCF826DDD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F211B5A-4F55-40B6-ACD1-9ED9F1FE4B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CC31EDDC-0550-4CF2-A97D-B21F5AAC4460}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>x8 ith</t>
+  </si>
+  <si>
+    <t>x9 ith</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF19A88-43D0-4D79-8D74-20BDAD7CB447}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +506,14 @@
         <v>16.202000000000002</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>20.962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
